--- a/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/RESULTS MACRO/SUMMARY_Report WO Produksi Sewing.xlsx
+++ b/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/RESULTS MACRO/SUMMARY_Report WO Produksi Sewing.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA Produksi\WO Produksi Sewing - WS_TC_SMP_PR\RESULTS MACRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8B54FD-23AF-44FB-8B23-B49C0679FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DA199E-83FF-418C-984A-AB93506359C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="10320" xr2:uid="{852B14E3-AD38-41D3-8596-8C2184165B82}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="10320" xr2:uid="{E15DB3FA-5611-46C9-81C6-0DB8235334CE}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SUMMARY!$B$3:$BL$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SUMMARY!$B$3:$BL$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="866" uniqueCount="51">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="733" uniqueCount="52">
   <si>
     <t>WO Production Sewing</t>
   </si>
@@ -89,6 +89,24 @@
     <t>Diff Days</t>
   </si>
   <si>
+    <t>KLB</t>
+  </si>
+  <si>
+    <t>Lilis</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>Nisa Rahayu</t>
+  </si>
+  <si>
+    <t>Deus Herlania, Alifia</t>
+  </si>
+  <si>
+    <t>Akbar, Ibrahim</t>
+  </si>
+  <si>
     <t>CVA</t>
   </si>
   <si>
@@ -101,12 +119,6 @@
     <t>MJ2</t>
   </si>
   <si>
-    <t>ADIDAS</t>
-  </si>
-  <si>
-    <t>Meillysa</t>
-  </si>
-  <si>
     <t>Siti Rokayah</t>
   </si>
   <si>
@@ -116,10 +128,25 @@
     <t>Prendi</t>
   </si>
   <si>
-    <t>CNJ2</t>
+    <t>CLN</t>
   </si>
   <si>
     <t>KAZEN-S#</t>
+  </si>
+  <si>
+    <t>Meillysa</t>
+  </si>
+  <si>
+    <t>Iwan, Dudung</t>
+  </si>
+  <si>
+    <t>Wulan</t>
+  </si>
+  <si>
+    <t>Asep Dodi</t>
+  </si>
+  <si>
+    <t>Bastian</t>
   </si>
   <si>
     <t>Feni</t>
@@ -128,10 +155,34 @@
     <t>Flaviana</t>
   </si>
   <si>
-    <t>Bastian</t>
+    <t>NISHIMATSUYA,</t>
+  </si>
+  <si>
+    <t>EIGER,</t>
+  </si>
+  <si>
+    <t>CNJ2</t>
+  </si>
+  <si>
+    <t>Dony</t>
+  </si>
+  <si>
+    <t>Mareta Ayu</t>
+  </si>
+  <si>
+    <t>Deny</t>
+  </si>
+  <si>
+    <t>Sularsi</t>
+  </si>
+  <si>
+    <t>Ati Astuti</t>
   </si>
   <si>
     <t>MJ1</t>
+  </si>
+  <si>
+    <t>Sausan, Imam, Endah</t>
   </si>
   <si>
     <t>Dede Rudianto</t>
@@ -140,58 +191,10 @@
     <t>Marso</t>
   </si>
   <si>
-    <t>Sausan, Imam, Endah</t>
+    <t>HNM</t>
   </si>
   <si>
-    <t>SKECHERS-S#</t>
-  </si>
-  <si>
-    <t>Winta</t>
-  </si>
-  <si>
-    <t>Sularsi</t>
-  </si>
-  <si>
-    <t>Mareta Ayu</t>
-  </si>
-  <si>
-    <t>Dony</t>
-  </si>
-  <si>
-    <t>Deny</t>
-  </si>
-  <si>
-    <t>KLB</t>
-  </si>
-  <si>
-    <t>Lilis</t>
-  </si>
-  <si>
-    <t>NISHIMATSUYA,</t>
-  </si>
-  <si>
-    <t>CLN</t>
-  </si>
-  <si>
-    <t>Nisa Rahayu</t>
-  </si>
-  <si>
-    <t>Akbar, Ibrahim</t>
-  </si>
-  <si>
-    <t>Deus Herlania, Alifia</t>
-  </si>
-  <si>
-    <t>Wulan</t>
-  </si>
-  <si>
-    <t>Iwan, Dudung</t>
-  </si>
-  <si>
-    <t>Asep Dodi</t>
-  </si>
-  <si>
-    <t>Ati Astuti</t>
+    <t>AITOZ,</t>
   </si>
 </sst>
 </file>
@@ -814,12 +817,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE1609-12E6-4679-8BB0-F2B69B3F2154}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912B0E48-6521-4D58-B987-D4A04A358890}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:BL55"/>
+  <dimension ref="B3:BL50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -828,21 +831,21 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
     <col min="19" max="19" width="22.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="18.7109375" customWidth="1"/>
     <col min="23" max="24" width="14.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" customWidth="1"/>
@@ -1385,16 +1388,14 @@
         <v>16</v>
       </c>
       <c r="D10" s="16">
-        <v>181673</v>
-      </c>
-      <c r="E10" s="16" t="s">
+        <v>24001002</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="H10" s="18">
         <v>0</v>
@@ -1403,19 +1404,17 @@
         <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L10" s="16">
-        <v>181746</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="M10" s="16"/>
       <c r="N10" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P10" s="18">
         <v>0</v>
@@ -1424,19 +1423,17 @@
         <v>1</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T10" s="16">
-        <v>181746</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="U10" s="16"/>
       <c r="V10" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X10" s="18">
         <v>0</v>
@@ -1445,19 +1442,19 @@
         <v>1</v>
       </c>
       <c r="AA10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>181924</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="AE10" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>181746</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD10" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="AF10" s="18">
         <v>0</v>
@@ -1466,19 +1463,19 @@
         <v>1</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AJ10" s="16">
-        <v>181746</v>
+        <v>181924</v>
       </c>
       <c r="AK10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL10" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="AM10" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="AL10" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AM10" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AN10" s="18">
         <v>0</v>
@@ -1487,19 +1484,19 @@
         <v>1</v>
       </c>
       <c r="AQ10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR10" s="16">
+        <v>181924</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT10" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="AU10" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="AR10" s="16">
-        <v>181746</v>
-      </c>
-      <c r="AS10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT10" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AU10" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="AV10" s="18">
         <v>0</v>
@@ -1508,19 +1505,19 @@
         <v>1</v>
       </c>
       <c r="AY10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ10" s="16">
-        <v>181746</v>
+        <v>181924</v>
       </c>
       <c r="BA10" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB10" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BD10" s="18">
         <v>0</v>
@@ -1529,19 +1526,19 @@
         <v>1</v>
       </c>
       <c r="BG10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH10" s="16">
+        <v>181924</v>
+      </c>
+      <c r="BI10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ10" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="BK10" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="BH10" s="16">
-        <v>181746</v>
-      </c>
-      <c r="BI10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ10" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="BK10" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="BL10" s="18">
         <v>0</v>
@@ -1552,18 +1549,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="16">
-        <v>181759</v>
+        <v>181668</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="G11" s="16"/>
+        <v>2024-02-20</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="18">
         <v>0</v>
       </c>
@@ -1571,19 +1570,19 @@
         <v>2</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L11" s="16">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P11" s="18">
         <v>0</v>
@@ -1592,19 +1591,19 @@
         <v>2</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T11" s="16">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X11" s="18">
         <v>0</v>
@@ -1613,19 +1612,19 @@
         <v>2</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB11" s="16">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF11" s="18">
         <v>0</v>
@@ -1634,19 +1633,19 @@
         <v>2</v>
       </c>
       <c r="AI11" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ11" s="16">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN11" s="18">
         <v>0</v>
@@ -1655,19 +1654,19 @@
         <v>2</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR11" s="16">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="AS11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV11" s="18">
         <v>0</v>
@@ -1676,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="AY11" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ11" s="16">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="BA11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC11" s="16" t="s">
         <v>28</v>
@@ -1697,19 +1696,19 @@
         <v>2</v>
       </c>
       <c r="BG11" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH11" s="16">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="BI11" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ11" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK11" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL11" s="18">
         <v>0</v>
@@ -1720,18 +1719,20 @@
         <v>3</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="16">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="G12" s="16"/>
+        <v>2024-02-21</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="18">
         <v>1</v>
       </c>
@@ -1739,61 +1740,61 @@
         <v>3</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L12" s="16">
-        <v>181729</v>
+        <v>181680</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-21</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="15">
         <v>3</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T12" s="16">
-        <v>181729</v>
+        <v>181680</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-21</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="15">
         <v>3</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="16">
-        <v>182004</v>
+        <v>181717</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AF12" s="18">
         <v>0</v>
@@ -1802,19 +1803,19 @@
         <v>3</v>
       </c>
       <c r="AI12" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AJ12" s="16">
-        <v>182004</v>
+        <v>181717</v>
       </c>
       <c r="AK12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL12" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="AM12" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="AL12" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AM12" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="AN12" s="18">
         <v>0</v>
@@ -1823,19 +1824,19 @@
         <v>3</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AR12" s="16">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="AS12" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU12" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AV12" s="18">
         <v>0</v>
@@ -1844,19 +1845,19 @@
         <v>3</v>
       </c>
       <c r="AY12" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AZ12" s="16">
-        <v>182004</v>
+        <v>181717</v>
       </c>
       <c r="BA12" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC12" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BD12" s="18">
         <v>0</v>
@@ -1865,19 +1866,19 @@
         <v>3</v>
       </c>
       <c r="BG12" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="BH12" s="16">
-        <v>182004</v>
+        <v>181717</v>
       </c>
       <c r="BI12" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ12" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK12" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BL12" s="18">
         <v>0</v>
@@ -1888,78 +1889,82 @@
         <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13" s="16">
-        <v>181901</v>
+        <v>181670</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F13" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="15">
         <v>4</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="16">
-        <v>181759</v>
+        <v>181670</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N13" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="O13" s="16"/>
+        <v>2024-02-22</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="P13" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="15">
         <v>4</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T13" s="16">
-        <v>181759</v>
+        <v>181670</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V13" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="W13" s="16"/>
+        <v>2024-02-22</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="X13" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="15">
         <v>4</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB13" s="16">
-        <v>181729</v>
+        <v>181936</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD13" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE13" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF13" s="18">
         <v>0</v>
@@ -1968,19 +1973,19 @@
         <v>4</v>
       </c>
       <c r="AI13" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ13" s="16">
-        <v>181729</v>
+        <v>181936</v>
       </c>
       <c r="AK13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL13" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM13" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN13" s="18">
         <v>0</v>
@@ -1989,19 +1994,19 @@
         <v>4</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR13" s="16">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="AS13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT13" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU13" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV13" s="18">
         <v>0</v>
@@ -2010,19 +2015,19 @@
         <v>4</v>
       </c>
       <c r="AY13" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ13" s="16">
-        <v>181729</v>
+        <v>181936</v>
       </c>
       <c r="BA13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB13" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC13" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD13" s="18">
         <v>0</v>
@@ -2031,19 +2036,19 @@
         <v>4</v>
       </c>
       <c r="BG13" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH13" s="16">
-        <v>181729</v>
+        <v>181936</v>
       </c>
       <c r="BI13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ13" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK13" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL13" s="18">
         <v>0</v>
@@ -2054,19 +2059,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14" s="16">
-        <v>181902</v>
+        <v>181672</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F14" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H14" s="18">
         <v>3</v>
@@ -2075,39 +2080,43 @@
         <v>5</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L14" s="16">
-        <v>181756</v>
+        <v>181672</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N14" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="O14" s="16"/>
+        <v>2024-02-23</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="P14" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" s="15">
         <v>5</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T14" s="16">
-        <v>181756</v>
+        <v>181672</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V14" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="W14" s="16"/>
+        <v>2024-02-23</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="X14" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="15">
         <v>5</v>
@@ -2116,16 +2125,16 @@
         <v>25</v>
       </c>
       <c r="AB14" s="16">
-        <v>181759</v>
+        <v>181722</v>
       </c>
       <c r="AC14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="AE14" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="AD14" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="AF14" s="18">
         <v>0</v>
@@ -2137,16 +2146,16 @@
         <v>25</v>
       </c>
       <c r="AJ14" s="16">
-        <v>181759</v>
+        <v>181722</v>
       </c>
       <c r="AK14" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AL14" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM14" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AN14" s="18">
         <v>0</v>
@@ -2158,16 +2167,16 @@
         <v>25</v>
       </c>
       <c r="AR14" s="16">
-        <v>181759</v>
+        <v>182002</v>
       </c>
       <c r="AS14" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AT14" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU14" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AV14" s="18">
         <v>0</v>
@@ -2179,16 +2188,16 @@
         <v>25</v>
       </c>
       <c r="AZ14" s="16">
-        <v>181759</v>
+        <v>181722</v>
       </c>
       <c r="BA14" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BB14" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC14" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="BD14" s="18">
         <v>0</v>
@@ -2200,16 +2209,16 @@
         <v>25</v>
       </c>
       <c r="BH14" s="16">
-        <v>181759</v>
+        <v>181722</v>
       </c>
       <c r="BI14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ14" s="17" t="d">
+        <v>2024-02-20</v>
+      </c>
+      <c r="BK14" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="BJ14" s="17" t="d">
-        <v>2024-02-16</v>
-      </c>
-      <c r="BK14" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="BL14" s="18">
         <v>0</v>
@@ -2220,20 +2229,18 @@
         <v>6</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D15" s="16">
-        <v>181667</v>
+        <v>181771</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F15" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>18</v>
-      </c>
+        <v>2024-02-23</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="18">
         <v>3</v>
       </c>
@@ -2241,61 +2248,61 @@
         <v>6</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L15" s="16">
-        <v>181901</v>
+        <v>181748</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N15" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-23</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P15" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" s="15">
         <v>6</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T15" s="16">
-        <v>181901</v>
+        <v>181748</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="V15" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-23</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X15" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="15">
         <v>6</v>
       </c>
       <c r="AA15" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB15" s="16">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD15" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE15" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF15" s="18">
         <v>0</v>
@@ -2304,19 +2311,19 @@
         <v>6</v>
       </c>
       <c r="AI15" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ15" s="16">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="AK15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL15" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM15" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN15" s="18">
         <v>0</v>
@@ -2325,19 +2332,19 @@
         <v>6</v>
       </c>
       <c r="AQ15" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR15" s="16">
-        <v>181846</v>
+        <v>181733</v>
       </c>
       <c r="AS15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT15" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU15" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV15" s="18">
         <v>0</v>
@@ -2346,19 +2353,19 @@
         <v>6</v>
       </c>
       <c r="AY15" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ15" s="16">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="BA15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB15" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC15" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD15" s="18">
         <v>0</v>
@@ -2367,103 +2374,101 @@
         <v>6</v>
       </c>
       <c r="BG15" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH15" s="16">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="BI15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ15" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK15" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL15" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+    <row r="16" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="16">
-        <v>181797</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18">
-        <v>3</v>
+      <c r="C16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="20">
+        <v>181675</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="21" t="d">
+        <v>2024-02-24</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="22">
+        <v>4</v>
       </c>
       <c r="J16" s="15">
         <v>7</v>
       </c>
       <c r="K16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="16">
+        <v>181771</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="16">
-        <v>181743</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>2024-02-23</v>
+      </c>
+      <c r="O16" s="16"/>
       <c r="P16" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" s="15">
         <v>7</v>
       </c>
       <c r="S16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="16">
+        <v>181771</v>
+      </c>
+      <c r="U16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="16">
-        <v>181743</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="V16" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>2024-02-23</v>
+      </c>
+      <c r="W16" s="16"/>
       <c r="X16" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="15">
         <v>7</v>
       </c>
       <c r="AA16" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB16" s="16">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD16" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF16" s="18">
         <v>0</v>
@@ -2472,19 +2477,19 @@
         <v>7</v>
       </c>
       <c r="AI16" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ16" s="16">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="AK16" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL16" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM16" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN16" s="18">
         <v>0</v>
@@ -2493,19 +2498,17 @@
         <v>7</v>
       </c>
       <c r="AQ16" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR16" s="16">
-        <v>181931</v>
-      </c>
-      <c r="AS16" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="AS16" s="16"/>
       <c r="AT16" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU16" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AV16" s="18">
         <v>0</v>
@@ -2514,19 +2517,19 @@
         <v>7</v>
       </c>
       <c r="AY16" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ16" s="16">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="BA16" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB16" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC16" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD16" s="18">
         <v>0</v>
@@ -2535,485 +2538,416 @@
         <v>7</v>
       </c>
       <c r="BG16" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH16" s="16">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="BI16" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ16" s="17" t="d">
-        <v>2024-02-16</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK16" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
-        <v>8</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="16">
-        <v>181900</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="18">
-        <v>3</v>
-      </c>
+    <row r="17" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J17" s="15">
         <v>8</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L17" s="16">
-        <v>181730</v>
+        <v>181675</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N17" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-24</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" s="15">
         <v>8</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T17" s="16">
-        <v>181730</v>
+        <v>181675</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V17" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-24</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="15">
         <v>8</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AB17" s="16">
-        <v>181756</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE17" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AF17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="15">
         <v>8</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AJ17" s="16">
-        <v>181756</v>
-      </c>
-      <c r="AK17" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="AK17" s="16"/>
       <c r="AL17" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM17" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="15">
         <v>8</v>
       </c>
       <c r="AQ17" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR17" s="16">
-        <v>181756</v>
+        <v>181668</v>
       </c>
       <c r="AS17" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT17" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU17" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AV17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="15">
         <v>8</v>
       </c>
       <c r="AY17" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AZ17" s="16">
-        <v>181756</v>
-      </c>
-      <c r="BA17" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="BA17" s="16"/>
       <c r="BB17" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC17" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="BD17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="15">
         <v>8</v>
       </c>
       <c r="BG17" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BH17" s="16">
-        <v>181756</v>
-      </c>
-      <c r="BI17" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>24001002</v>
+      </c>
+      <c r="BI17" s="16"/>
       <c r="BJ17" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK17" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BL17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
-        <v>9</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="16">
-        <v>181668</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="18">
-        <v>4</v>
-      </c>
+    <row r="18" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J18" s="15">
         <v>9</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L18" s="16">
-        <v>181902</v>
+        <v>181725</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N18" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" s="15">
         <v>9</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T18" s="16">
-        <v>181902</v>
+        <v>181725</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="V18" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="15">
         <v>9</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB18" s="16">
-        <v>181844</v>
+        <v>181668</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD18" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE18" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AF18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="15">
         <v>9</v>
       </c>
       <c r="AI18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ18" s="16">
-        <v>181844</v>
+        <v>181668</v>
       </c>
       <c r="AK18" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL18" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM18" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AN18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="15">
         <v>9</v>
       </c>
       <c r="AQ18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR18" s="16">
-        <v>181844</v>
+        <v>182009</v>
       </c>
       <c r="AS18" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AT18" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AU18" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AV18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="15">
         <v>9</v>
       </c>
       <c r="AY18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ18" s="16">
-        <v>181844</v>
+        <v>181668</v>
       </c>
       <c r="BA18" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB18" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC18" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="15">
         <v>9</v>
       </c>
       <c r="BG18" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH18" s="16">
-        <v>181844</v>
+        <v>181668</v>
       </c>
       <c r="BI18" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ18" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK18" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BL18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
-        <v>10</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="18">
-        <v>4</v>
-      </c>
+    <row r="19" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J19" s="15">
         <v>10</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L19" s="16">
-        <v>181667</v>
+        <v>181724</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N19" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P19" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" s="15">
         <v>10</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T19" s="16">
-        <v>181667</v>
+        <v>181724</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V19" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="X19" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="15">
         <v>10</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB19" s="16">
-        <v>181940</v>
+        <v>182009</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AD19" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AE19" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AF19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="15">
         <v>10</v>
       </c>
       <c r="AI19" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ19" s="16">
-        <v>181940</v>
+        <v>182009</v>
       </c>
       <c r="AK19" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL19" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="AM19" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AN19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="15">
         <v>10</v>
       </c>
       <c r="AQ19" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR19" s="16">
-        <v>181940</v>
+        <v>181680</v>
       </c>
       <c r="AS19" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT19" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AU19" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AV19" s="18">
         <v>1</v>
@@ -3022,85 +2956,66 @@
         <v>10</v>
       </c>
       <c r="AY19" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ19" s="16">
-        <v>181940</v>
+        <v>182009</v>
       </c>
       <c r="BA19" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="BB19" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BC19" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="15">
         <v>10</v>
       </c>
       <c r="BG19" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH19" s="16">
-        <v>181940</v>
+        <v>182009</v>
       </c>
       <c r="BI19" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="BJ19" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-20</v>
       </c>
       <c r="BK19" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BL19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+    <row r="20" spans="10:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="19">
         <v>11</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="16">
-        <v>181680</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="17" t="d">
-        <v>2024-02-21</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="18">
-        <v>5</v>
-      </c>
-      <c r="J20" s="15">
-        <v>11</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="16">
-        <v>181797</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="18">
-        <v>3</v>
+      <c r="K20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="20">
+        <v>181720</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="21" t="d">
+        <v>2024-02-26</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="22">
+        <v>6</v>
       </c>
       <c r="R20" s="15">
         <v>11</v>
@@ -3109,35 +3024,37 @@
         <v>25</v>
       </c>
       <c r="T20" s="16">
-        <v>181797</v>
+        <v>181720</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="V20" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="W20" s="16"/>
+        <v>2024-02-26</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="X20" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="15">
         <v>11</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB20" s="16">
-        <v>181601</v>
+        <v>181680</v>
       </c>
       <c r="AC20" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD20" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AE20" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AF20" s="18">
         <v>1</v>
@@ -3146,19 +3063,19 @@
         <v>11</v>
       </c>
       <c r="AI20" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ20" s="16">
-        <v>181601</v>
+        <v>181680</v>
       </c>
       <c r="AK20" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL20" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AM20" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AN20" s="18">
         <v>1</v>
@@ -3167,19 +3084,19 @@
         <v>11</v>
       </c>
       <c r="AQ20" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR20" s="16">
-        <v>181601</v>
+        <v>181954</v>
       </c>
       <c r="AS20" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT20" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AU20" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV20" s="18">
         <v>1</v>
@@ -3188,19 +3105,19 @@
         <v>11</v>
       </c>
       <c r="AY20" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ20" s="16">
-        <v>181601</v>
+        <v>181680</v>
       </c>
       <c r="BA20" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB20" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="BC20" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD20" s="18">
         <v>1</v>
@@ -3209,105 +3126,63 @@
         <v>11</v>
       </c>
       <c r="BG20" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH20" s="16">
-        <v>181601</v>
+        <v>181680</v>
       </c>
       <c r="BI20" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ20" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="BK20" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BL20" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+    <row r="21" spans="10:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="19">
         <v>12</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="S21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="16">
-        <v>181670</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="T21" s="20">
+        <v>181907</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="W21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="17" t="d">
-        <v>2024-02-22</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="18">
-        <v>6</v>
-      </c>
-      <c r="J21" s="15">
-        <v>12</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="16">
-        <v>181900</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="18">
-        <v>3</v>
-      </c>
-      <c r="R21" s="15">
-        <v>12</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="16">
-        <v>181900</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="V21" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="18">
-        <v>3</v>
+      <c r="X21" s="22">
+        <v>7</v>
       </c>
       <c r="Z21" s="15">
         <v>12</v>
       </c>
       <c r="AA21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB21" s="16">
-        <v>182008</v>
+        <v>181954</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD21" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AE21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF21" s="18">
         <v>1</v>
@@ -3316,19 +3191,19 @@
         <v>12</v>
       </c>
       <c r="AI21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ21" s="16">
-        <v>182008</v>
+        <v>181954</v>
       </c>
       <c r="AK21" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AL21" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="AM21" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN21" s="18">
         <v>1</v>
@@ -3337,37 +3212,37 @@
         <v>12</v>
       </c>
       <c r="AQ21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR21" s="16">
-        <v>182008</v>
+        <v>181957</v>
       </c>
       <c r="AS21" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AT21" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AU21" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV21" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="15">
         <v>12</v>
       </c>
       <c r="AY21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ21" s="16">
-        <v>182008</v>
+        <v>181954</v>
       </c>
       <c r="BA21" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="BB21" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="BC21" s="16" t="s">
         <v>28</v>
@@ -3379,293 +3254,173 @@
         <v>12</v>
       </c>
       <c r="BG21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH21" s="16">
-        <v>182008</v>
+        <v>181954</v>
       </c>
       <c r="BI21" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="BJ21" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-21</v>
       </c>
       <c r="BK21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL21" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
-        <v>13</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="16">
-        <v>181771</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18">
-        <v>7</v>
-      </c>
-      <c r="J22" s="15">
-        <v>13</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="16">
-        <v>181668</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="18">
-        <v>4</v>
-      </c>
-      <c r="R22" s="15">
-        <v>13</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="16">
-        <v>181668</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="V22" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="X22" s="18">
-        <v>4</v>
-      </c>
+    <row r="22" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z22" s="15">
         <v>13</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB22" s="16">
-        <v>181738</v>
+        <v>181957</v>
       </c>
       <c r="AC22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD22" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="15">
         <v>13</v>
       </c>
       <c r="AI22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ22" s="16">
-        <v>181738</v>
+        <v>181957</v>
       </c>
       <c r="AK22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL22" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AM22" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="15">
         <v>13</v>
       </c>
       <c r="AQ22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR22" s="16">
-        <v>181738</v>
+        <v>181925</v>
       </c>
       <c r="AS22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT22" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AU22" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="15">
         <v>13</v>
       </c>
       <c r="AY22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ22" s="16">
-        <v>181738</v>
+        <v>181957</v>
       </c>
       <c r="BA22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB22" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BC22" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF22" s="15">
         <v>13</v>
       </c>
       <c r="BG22" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH22" s="16">
-        <v>181738</v>
+        <v>181957</v>
       </c>
       <c r="BI22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ22" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BK22" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
-        <v>14</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="20">
-        <v>181672</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="22">
-        <v>7</v>
-      </c>
-      <c r="J23" s="15">
-        <v>14</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="18">
-        <v>4</v>
-      </c>
-      <c r="R23" s="15">
-        <v>14</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="17" t="d">
-        <v>2024-02-20</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="18">
-        <v>4</v>
-      </c>
+    <row r="23" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z23" s="15">
         <v>14</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB23" s="16">
-        <v>181901</v>
+        <v>181925</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AD23" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AE23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="15">
         <v>14</v>
       </c>
       <c r="AI23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ23" s="16">
-        <v>181901</v>
+        <v>181925</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL23" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AM23" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="15">
         <v>14</v>
@@ -3674,165 +3429,123 @@
         <v>16</v>
       </c>
       <c r="AR23" s="16">
-        <v>181901</v>
+        <v>181921</v>
       </c>
       <c r="AS23" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AT23" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AU23" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AV23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="15">
         <v>14</v>
       </c>
       <c r="AY23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ23" s="16">
-        <v>181901</v>
+        <v>181925</v>
       </c>
       <c r="BA23" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BB23" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BC23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="BD23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF23" s="15">
         <v>14</v>
       </c>
       <c r="BG23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH23" s="16">
-        <v>181901</v>
+        <v>181925</v>
       </c>
       <c r="BI23" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BJ23" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BK23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="15">
-        <v>15</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="16">
-        <v>181680</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="17" t="d">
-        <v>2024-02-21</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="18">
-        <v>5</v>
-      </c>
-      <c r="R24" s="15">
-        <v>15</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T24" s="16">
-        <v>181680</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24" s="17" t="d">
-        <v>2024-02-21</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="X24" s="18">
-        <v>5</v>
-      </c>
+    <row r="24" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z24" s="15">
         <v>15</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB24" s="16">
-        <v>181743</v>
+        <v>181921</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD24" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AE24" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AF24" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH24" s="15">
         <v>15</v>
       </c>
       <c r="AI24" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AJ24" s="16">
-        <v>181743</v>
+        <v>181921</v>
       </c>
       <c r="AK24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL24" s="17" t="d">
+        <v>2024-02-22</v>
+      </c>
+      <c r="AM24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AL24" s="17" t="d">
-        <v>2024-02-17</v>
-      </c>
-      <c r="AM24" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="AN24" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24" s="15">
         <v>15</v>
       </c>
       <c r="AQ24" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AR24" s="16">
-        <v>181988</v>
+        <v>181670</v>
       </c>
       <c r="AS24" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT24" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AU24" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AV24" s="18">
         <v>2</v>
@@ -3841,19 +3554,19 @@
         <v>15</v>
       </c>
       <c r="AY24" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AZ24" s="16">
-        <v>181988</v>
+        <v>181921</v>
       </c>
       <c r="BA24" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB24" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BC24" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BD24" s="18">
         <v>2</v>
@@ -3862,84 +3575,42 @@
         <v>15</v>
       </c>
       <c r="BG24" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="BH24" s="16">
-        <v>181743</v>
+        <v>181921</v>
       </c>
       <c r="BI24" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ24" s="17" t="d">
-        <v>2024-02-17</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BK24" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BL24" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="15">
-        <v>16</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="16">
-        <v>181670</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="17" t="d">
-        <v>2024-02-22</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="18">
-        <v>6</v>
-      </c>
-      <c r="R25" s="15">
-        <v>16</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T25" s="16">
-        <v>181670</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="V25" s="17" t="d">
-        <v>2024-02-22</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="X25" s="18">
-        <v>6</v>
-      </c>
+    <row r="25" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z25" s="15">
         <v>16</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AB25" s="16">
-        <v>181988</v>
+        <v>181670</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD25" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AE25" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AF25" s="18">
         <v>2</v>
@@ -3948,19 +3619,19 @@
         <v>16</v>
       </c>
       <c r="AI25" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AJ25" s="16">
-        <v>181988</v>
+        <v>181670</v>
       </c>
       <c r="AK25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL25" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="AM25" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN25" s="18">
         <v>2</v>
@@ -3969,40 +3640,40 @@
         <v>16</v>
       </c>
       <c r="AQ25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR25" s="16">
-        <v>181730</v>
+        <v>181672</v>
       </c>
       <c r="AS25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT25" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU25" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AV25" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="15">
         <v>16</v>
       </c>
       <c r="AY25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ25" s="16">
-        <v>181730</v>
+        <v>181670</v>
       </c>
       <c r="BA25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB25" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BC25" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD25" s="18">
         <v>2</v>
@@ -4011,122 +3682,84 @@
         <v>16</v>
       </c>
       <c r="BG25" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BH25" s="16">
-        <v>181988</v>
+        <v>181670</v>
       </c>
       <c r="BI25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ25" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-22</v>
       </c>
       <c r="BK25" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BL25" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="15">
-        <v>17</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="16">
-        <v>181771</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="18">
-        <v>7</v>
-      </c>
-      <c r="R26" s="15">
-        <v>17</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="16">
-        <v>181771</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="W26" s="16"/>
-      <c r="X26" s="18">
-        <v>7</v>
-      </c>
+    <row r="26" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z26" s="15">
         <v>17</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB26" s="16">
-        <v>181730</v>
+        <v>181672</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD26" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AE26" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AF26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="15">
         <v>17</v>
       </c>
       <c r="AI26" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ26" s="16">
-        <v>181730</v>
+        <v>181672</v>
       </c>
       <c r="AK26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL26" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AM26" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AN26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP26" s="15">
         <v>17</v>
       </c>
       <c r="AQ26" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR26" s="16">
-        <v>181938</v>
+        <v>181735</v>
       </c>
       <c r="AS26" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT26" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU26" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV26" s="18">
         <v>3</v>
@@ -4135,19 +3768,19 @@
         <v>17</v>
       </c>
       <c r="AY26" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ26" s="16">
-        <v>181938</v>
+        <v>181672</v>
       </c>
       <c r="BA26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB26" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC26" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD26" s="18">
         <v>3</v>
@@ -4156,84 +3789,42 @@
         <v>17</v>
       </c>
       <c r="BG26" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH26" s="16">
-        <v>181730</v>
+        <v>181672</v>
       </c>
       <c r="BI26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ26" s="17" t="d">
-        <v>2024-02-18</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK26" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BL26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="15">
-        <v>18</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="16">
-        <v>181748</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="17" t="d">
+    <row r="27" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="15">
+        <v>18</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>181735</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD27" s="17" t="d">
         <v>2024-02-23</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="18">
-        <v>7</v>
-      </c>
-      <c r="R27" s="15">
-        <v>18</v>
-      </c>
-      <c r="S27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="16">
-        <v>181748</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V27" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="X27" s="18">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>18</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>181938</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD27" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
       <c r="AE27" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF27" s="18">
         <v>3</v>
@@ -4242,19 +3833,19 @@
         <v>18</v>
       </c>
       <c r="AI27" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ27" s="16">
-        <v>181938</v>
+        <v>181735</v>
       </c>
       <c r="AK27" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL27" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AM27" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN27" s="18">
         <v>3</v>
@@ -4263,19 +3854,19 @@
         <v>18</v>
       </c>
       <c r="AQ27" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AR27" s="16">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="AS27" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AT27" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU27" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AV27" s="18">
         <v>3</v>
@@ -4284,16 +3875,16 @@
         <v>18</v>
       </c>
       <c r="AY27" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ27" s="16">
-        <v>181663</v>
+        <v>181735</v>
       </c>
       <c r="BA27" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB27" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC27" s="16" t="s">
         <v>28</v>
@@ -4305,84 +3896,42 @@
         <v>18</v>
       </c>
       <c r="BG27" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH27" s="16">
-        <v>181938</v>
+        <v>181735</v>
       </c>
       <c r="BI27" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ27" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK27" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL27" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="19">
-        <v>19</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="20">
-        <v>181672</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="22">
-        <v>7</v>
-      </c>
-      <c r="R28" s="19">
-        <v>19</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="T28" s="20">
-        <v>181672</v>
-      </c>
-      <c r="U28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="V28" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="X28" s="22">
-        <v>7</v>
-      </c>
+    <row r="28" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z28" s="15">
         <v>19</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB28" s="16">
-        <v>181902</v>
+        <v>181937</v>
       </c>
       <c r="AC28" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AD28" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF28" s="18">
         <v>3</v>
@@ -4391,19 +3940,19 @@
         <v>19</v>
       </c>
       <c r="AI28" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AJ28" s="16">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="AK28" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AL28" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AM28" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AN28" s="18">
         <v>3</v>
@@ -4412,19 +3961,19 @@
         <v>19</v>
       </c>
       <c r="AQ28" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR28" s="16">
-        <v>181902</v>
+        <v>181937</v>
       </c>
       <c r="AS28" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AT28" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV28" s="18">
         <v>3</v>
@@ -4433,19 +3982,19 @@
         <v>19</v>
       </c>
       <c r="AY28" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AZ28" s="16">
-        <v>181902</v>
+        <v>181767</v>
       </c>
       <c r="BA28" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BB28" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC28" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="BD28" s="18">
         <v>3</v>
@@ -4454,42 +4003,42 @@
         <v>19</v>
       </c>
       <c r="BG28" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="BH28" s="16">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="BI28" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="BJ28" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK28" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="BL28" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z29" s="15">
         <v>20</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB29" s="16">
-        <v>181987</v>
+        <v>181943</v>
       </c>
       <c r="AC29" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD29" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AE29" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AF29" s="18">
         <v>3</v>
@@ -4498,19 +4047,19 @@
         <v>20</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ29" s="16">
-        <v>181902</v>
+        <v>181937</v>
       </c>
       <c r="AK29" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL29" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AM29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN29" s="18">
         <v>3</v>
@@ -4519,19 +4068,19 @@
         <v>20</v>
       </c>
       <c r="AQ29" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AR29" s="16">
-        <v>181987</v>
+        <v>181943</v>
       </c>
       <c r="AS29" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT29" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU29" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AV29" s="18">
         <v>3</v>
@@ -4540,19 +4089,19 @@
         <v>20</v>
       </c>
       <c r="AY29" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ29" s="16">
-        <v>181987</v>
+        <v>181937</v>
       </c>
       <c r="BA29" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB29" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC29" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BD29" s="18">
         <v>3</v>
@@ -4561,42 +4110,42 @@
         <v>20</v>
       </c>
       <c r="BG29" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH29" s="16">
-        <v>181902</v>
+        <v>181937</v>
       </c>
       <c r="BI29" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BJ29" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL29" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z30" s="15">
         <v>21</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB30" s="16">
-        <v>181939</v>
+        <v>181748</v>
       </c>
       <c r="AC30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD30" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AE30" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF30" s="18">
         <v>3</v>
@@ -4605,19 +4154,19 @@
         <v>21</v>
       </c>
       <c r="AI30" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AJ30" s="16">
-        <v>181987</v>
+        <v>181943</v>
       </c>
       <c r="AK30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL30" s="17" t="d">
+        <v>2024-02-23</v>
+      </c>
+      <c r="AM30" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="AL30" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="AM30" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="AN30" s="18">
         <v>3</v>
@@ -4626,19 +4175,19 @@
         <v>21</v>
       </c>
       <c r="AQ30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR30" s="16">
-        <v>181939</v>
+        <v>181748</v>
       </c>
       <c r="AS30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT30" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AU30" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV30" s="18">
         <v>3</v>
@@ -4647,19 +4196,19 @@
         <v>21</v>
       </c>
       <c r="AY30" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ30" s="16">
-        <v>181939</v>
+        <v>181943</v>
       </c>
       <c r="BA30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB30" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC30" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BD30" s="18">
         <v>3</v>
@@ -4668,42 +4217,42 @@
         <v>21</v>
       </c>
       <c r="BG30" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="BH30" s="16">
-        <v>181987</v>
+        <v>181943</v>
       </c>
       <c r="BI30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ30" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK30" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BL30" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z31" s="15">
         <v>22</v>
       </c>
       <c r="AA31" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AB31" s="16">
-        <v>181667</v>
+        <v>181771</v>
       </c>
       <c r="AC31" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AD31" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AE31" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AF31" s="18">
         <v>3</v>
@@ -4712,19 +4261,19 @@
         <v>22</v>
       </c>
       <c r="AI31" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ31" s="16">
-        <v>181939</v>
+        <v>181748</v>
       </c>
       <c r="AK31" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL31" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="AM31" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN31" s="18">
         <v>3</v>
@@ -4733,37 +4282,37 @@
         <v>22</v>
       </c>
       <c r="AQ31" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AR31" s="16">
-        <v>181667</v>
+        <v>181981</v>
       </c>
       <c r="AS31" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT31" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="AU31" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AV31" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX31" s="15">
         <v>22</v>
       </c>
       <c r="AY31" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ31" s="16">
-        <v>181667</v>
+        <v>181748</v>
       </c>
       <c r="BA31" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BC31" s="16" t="s">
         <v>28</v>
@@ -4775,64 +4324,62 @@
         <v>22</v>
       </c>
       <c r="BG31" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH31" s="16">
-        <v>181939</v>
+        <v>181748</v>
       </c>
       <c r="BI31" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ31" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL31" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z32" s="15">
         <v>23</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AB32" s="16">
-        <v>181948</v>
+        <v>181981</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD32" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="AE32" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AF32" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH32" s="15">
         <v>23</v>
       </c>
       <c r="AI32" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AJ32" s="16">
-        <v>181667</v>
+        <v>181771</v>
       </c>
       <c r="AK32" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AL32" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="AM32" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>2024-02-23</v>
+      </c>
+      <c r="AM32" s="16"/>
       <c r="AN32" s="18">
         <v>3</v>
       </c>
@@ -4840,61 +4387,61 @@
         <v>23</v>
       </c>
       <c r="AQ32" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR32" s="16">
-        <v>181797</v>
+        <v>181675</v>
       </c>
       <c r="AS32" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT32" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="AU32" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AV32" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX32" s="15">
         <v>23</v>
       </c>
       <c r="AY32" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AZ32" s="16">
-        <v>181797</v>
+        <v>181981</v>
       </c>
       <c r="BA32" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BB32" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="BC32" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BD32" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF32" s="15">
         <v>23</v>
       </c>
       <c r="BG32" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="BH32" s="16">
-        <v>181667</v>
+        <v>181771</v>
       </c>
       <c r="BI32" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="BJ32" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-23</v>
       </c>
       <c r="BK32" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="BL32" s="18">
         <v>3</v>
@@ -4905,106 +4452,106 @@
         <v>24</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB33" s="16">
-        <v>181900</v>
+        <v>181675</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AD33" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AF33" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="15">
         <v>24</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AJ33" s="16">
-        <v>181797</v>
+        <v>181981</v>
       </c>
       <c r="AK33" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AL33" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="AM33" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AN33" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP33" s="15">
         <v>24</v>
       </c>
       <c r="AQ33" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR33" s="16">
-        <v>181948</v>
+        <v>181725</v>
       </c>
       <c r="AS33" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT33" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AU33" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV33" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX33" s="15">
         <v>24</v>
       </c>
       <c r="AY33" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ33" s="16">
-        <v>181948</v>
+        <v>181675</v>
       </c>
       <c r="BA33" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB33" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="BC33" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD33" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF33" s="15">
         <v>24</v>
       </c>
       <c r="BG33" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="BH33" s="16">
-        <v>181797</v>
+        <v>181981</v>
       </c>
       <c r="BI33" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BJ33" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="BK33" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="BL33" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5012,106 +4559,106 @@
         <v>25</v>
       </c>
       <c r="AA34" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB34" s="16">
-        <v>181924</v>
+        <v>181725</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD34" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AF34" s="18">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>25</v>
+      </c>
+      <c r="AI34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ34" s="16">
+        <v>181675</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL34" s="17" t="d">
+        <v>2024-02-24</v>
+      </c>
+      <c r="AM34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN34" s="18">
         <v>4</v>
       </c>
-      <c r="AH34" s="15">
-        <v>25</v>
-      </c>
-      <c r="AI34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ34" s="16">
-        <v>181948</v>
-      </c>
-      <c r="AK34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL34" s="17" t="d">
-        <v>2024-02-19</v>
-      </c>
-      <c r="AM34" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN34" s="18">
-        <v>3</v>
-      </c>
       <c r="AP34" s="15">
         <v>25</v>
       </c>
       <c r="AQ34" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR34" s="16">
-        <v>181900</v>
+        <v>181952</v>
       </c>
       <c r="AS34" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AT34" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AU34" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV34" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX34" s="15">
         <v>25</v>
       </c>
       <c r="AY34" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ34" s="16">
-        <v>181900</v>
+        <v>181725</v>
       </c>
       <c r="BA34" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BB34" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BC34" s="16" t="s">
         <v>28</v>
       </c>
       <c r="BD34" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF34" s="15">
         <v>25</v>
       </c>
       <c r="BG34" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BH34" s="16">
-        <v>181948</v>
+        <v>181675</v>
       </c>
       <c r="BI34" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ34" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-24</v>
       </c>
       <c r="BK34" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="BL34" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,106 +4666,106 @@
         <v>26</v>
       </c>
       <c r="AA35" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB35" s="16">
-        <v>182009</v>
+        <v>181952</v>
       </c>
       <c r="AC35" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD35" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF35" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH35" s="15">
         <v>26</v>
       </c>
       <c r="AI35" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ35" s="16">
-        <v>181900</v>
+        <v>181725</v>
       </c>
       <c r="AK35" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL35" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AM35" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN35" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP35" s="15">
         <v>26</v>
       </c>
       <c r="AQ35" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AR35" s="16">
-        <v>181924</v>
+        <v>181724</v>
       </c>
       <c r="AS35" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT35" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AU35" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AV35" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX35" s="15">
         <v>26</v>
       </c>
       <c r="AY35" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AZ35" s="16">
-        <v>181924</v>
+        <v>181952</v>
       </c>
       <c r="BA35" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB35" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BC35" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="BD35" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF35" s="15">
         <v>26</v>
       </c>
       <c r="BG35" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH35" s="16">
-        <v>181900</v>
+        <v>181725</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BJ35" s="17" t="d">
-        <v>2024-02-19</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BK35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL35" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,106 +4773,106 @@
         <v>27</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB36" s="16">
-        <v>181668</v>
+        <v>181724</v>
       </c>
       <c r="AC36" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD36" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AE36" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF36" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH36" s="15">
         <v>27</v>
       </c>
       <c r="AI36" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ36" s="16">
-        <v>181924</v>
+        <v>181952</v>
       </c>
       <c r="AK36" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL36" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AM36" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AN36" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP36" s="15">
         <v>27</v>
       </c>
       <c r="AQ36" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR36" s="16">
-        <v>182009</v>
+        <v>181958</v>
       </c>
       <c r="AS36" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AT36" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU36" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV36" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX36" s="15">
         <v>27</v>
       </c>
       <c r="AY36" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ36" s="16">
-        <v>182009</v>
+        <v>181724</v>
       </c>
       <c r="BA36" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="BB36" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BC36" s="16" t="s">
         <v>28</v>
       </c>
       <c r="BD36" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF36" s="15">
         <v>27</v>
       </c>
       <c r="BG36" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="BH36" s="16">
-        <v>181924</v>
+        <v>181952</v>
       </c>
       <c r="BI36" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ36" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BK36" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="BL36" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,106 +4880,106 @@
         <v>28</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB37" s="16">
-        <v>181717</v>
+        <v>181958</v>
       </c>
       <c r="AC37" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD37" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AF37" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH37" s="15">
         <v>28</v>
       </c>
       <c r="AI37" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="16">
-        <v>182009</v>
+        <v>181724</v>
       </c>
       <c r="AK37" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AL37" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="AM37" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN37" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP37" s="15">
         <v>28</v>
       </c>
       <c r="AQ37" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR37" s="16">
-        <v>181668</v>
+        <v>181953</v>
       </c>
       <c r="AS37" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT37" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU37" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV37" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX37" s="15">
         <v>28</v>
       </c>
       <c r="AY37" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ37" s="16">
-        <v>181668</v>
+        <v>181958</v>
       </c>
       <c r="BA37" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB37" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="BD37" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF37" s="15">
         <v>28</v>
       </c>
       <c r="BG37" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH37" s="16">
-        <v>182009</v>
+        <v>181724</v>
       </c>
       <c r="BI37" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="BJ37" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-25</v>
       </c>
       <c r="BK37" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL37" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,102 +4987,106 @@
         <v>29</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB38" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="AC38" s="16"/>
+        <v>181953</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AD38" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE38" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AF38" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH38" s="15">
         <v>29</v>
       </c>
       <c r="AI38" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ38" s="16">
-        <v>181668</v>
+        <v>181958</v>
       </c>
       <c r="AK38" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL38" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN38" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP38" s="15">
         <v>29</v>
       </c>
       <c r="AQ38" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AR38" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="AS38" s="16"/>
+        <v>181927</v>
+      </c>
+      <c r="AS38" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AT38" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AV38" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX38" s="15">
         <v>29</v>
       </c>
       <c r="AY38" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AZ38" s="16">
-        <v>181717</v>
+        <v>181953</v>
       </c>
       <c r="BA38" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB38" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC38" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="BD38" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF38" s="15">
         <v>29</v>
       </c>
       <c r="BG38" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH38" s="16">
-        <v>181668</v>
+        <v>181958</v>
       </c>
       <c r="BI38" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ38" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK38" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL38" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,104 +5094,106 @@
         <v>30</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB39" s="16">
-        <v>181936</v>
+        <v>181927</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD39" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF39" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH39" s="15">
         <v>30</v>
       </c>
       <c r="AI39" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ39" s="16">
-        <v>181717</v>
+        <v>181953</v>
       </c>
       <c r="AK39" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL39" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AN39" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP39" s="15">
         <v>30</v>
       </c>
       <c r="AQ39" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR39" s="16">
-        <v>181936</v>
+        <v>181720</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT39" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV39" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX39" s="15">
         <v>30</v>
       </c>
       <c r="AY39" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AZ39" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="BA39" s="16"/>
+        <v>181927</v>
+      </c>
+      <c r="BA39" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="BB39" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC39" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="BD39" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF39" s="15">
         <v>30</v>
       </c>
       <c r="BG39" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="BH39" s="16">
-        <v>181717</v>
+        <v>181953</v>
       </c>
       <c r="BI39" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ39" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK39" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="BL39" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,102 +5201,106 @@
         <v>31</v>
       </c>
       <c r="AA40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB40" s="16">
-        <v>181954</v>
+        <v>181720</v>
       </c>
       <c r="AC40" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD40" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF40" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH40" s="15">
         <v>31</v>
       </c>
       <c r="AI40" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ40" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="AK40" s="16"/>
+        <v>181927</v>
+      </c>
+      <c r="AK40" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AL40" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM40" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AN40" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP40" s="15">
         <v>31</v>
       </c>
       <c r="AQ40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR40" s="16">
-        <v>181954</v>
+        <v>181949</v>
       </c>
       <c r="AS40" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT40" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU40" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV40" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX40" s="15">
         <v>31</v>
       </c>
       <c r="AY40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ40" s="16">
-        <v>181936</v>
+        <v>181720</v>
       </c>
       <c r="BA40" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB40" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC40" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD40" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF40" s="15">
         <v>31</v>
       </c>
       <c r="BG40" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="BH40" s="16">
-        <v>24001002</v>
-      </c>
-      <c r="BI40" s="16"/>
+        <v>181927</v>
+      </c>
+      <c r="BI40" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="BJ40" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK40" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="BL40" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,106 +5308,106 @@
         <v>32</v>
       </c>
       <c r="AA41" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB41" s="16">
-        <v>181680</v>
+        <v>181949</v>
       </c>
       <c r="AC41" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD41" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF41" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH41" s="15">
         <v>32</v>
       </c>
       <c r="AI41" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ41" s="16">
-        <v>181936</v>
+        <v>181720</v>
       </c>
       <c r="AK41" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL41" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM41" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN41" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP41" s="15">
         <v>32</v>
       </c>
       <c r="AQ41" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AR41" s="16">
-        <v>181680</v>
+        <v>181980</v>
       </c>
       <c r="AS41" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT41" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AU41" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AV41" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX41" s="15">
         <v>32</v>
       </c>
       <c r="AY41" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ41" s="16">
-        <v>181954</v>
+        <v>181949</v>
       </c>
       <c r="BA41" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB41" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC41" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD41" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF41" s="15">
         <v>32</v>
       </c>
       <c r="BG41" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH41" s="16">
-        <v>181936</v>
+        <v>181720</v>
       </c>
       <c r="BI41" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ41" s="17" t="d">
-        <v>2024-02-20</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK41" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL41" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,19 +5415,19 @@
         <v>33</v>
       </c>
       <c r="AA42" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AB42" s="16">
-        <v>181925</v>
+        <v>181980</v>
       </c>
       <c r="AC42" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD42" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AE42" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AF42" s="18">
         <v>6</v>
@@ -5879,85 +5436,85 @@
         <v>33</v>
       </c>
       <c r="AI42" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ42" s="16">
-        <v>181954</v>
+        <v>181949</v>
       </c>
       <c r="AK42" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL42" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM42" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN42" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP42" s="15">
         <v>33</v>
       </c>
       <c r="AQ42" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR42" s="16">
-        <v>181925</v>
+        <v>181950</v>
       </c>
       <c r="AS42" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT42" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU42" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV42" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX42" s="15">
         <v>33</v>
       </c>
       <c r="AY42" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AZ42" s="16">
-        <v>181680</v>
+        <v>181980</v>
       </c>
       <c r="BA42" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB42" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BC42" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="BD42" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF42" s="15">
         <v>33</v>
       </c>
       <c r="BG42" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH42" s="16">
-        <v>181954</v>
+        <v>181949</v>
       </c>
       <c r="BI42" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ42" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK42" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL42" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,106 +5522,106 @@
         <v>34</v>
       </c>
       <c r="AA43" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB43" s="16">
-        <v>181670</v>
+        <v>181950</v>
       </c>
       <c r="AC43" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD43" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF43" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH43" s="15">
         <v>34</v>
       </c>
       <c r="AI43" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AJ43" s="16">
-        <v>181680</v>
+        <v>181980</v>
       </c>
       <c r="AK43" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL43" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="AM43" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AN43" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP43" s="15">
         <v>34</v>
       </c>
       <c r="AQ43" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AR43" s="16">
-        <v>181670</v>
+        <v>182039</v>
       </c>
       <c r="AS43" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AT43" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU43" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AV43" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX43" s="15">
         <v>34</v>
       </c>
       <c r="AY43" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ43" s="16">
-        <v>181925</v>
+        <v>181950</v>
       </c>
       <c r="BA43" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB43" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BC43" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD43" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF43" s="15">
         <v>34</v>
       </c>
       <c r="BG43" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="BH43" s="16">
-        <v>181680</v>
+        <v>181980</v>
       </c>
       <c r="BI43" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ43" s="17" t="d">
-        <v>2024-02-21</v>
+        <v>2024-02-26</v>
       </c>
       <c r="BK43" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="BL43" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,106 +5629,106 @@
         <v>35</v>
       </c>
       <c r="AA44" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AB44" s="16">
-        <v>181957</v>
+        <v>181934</v>
       </c>
       <c r="AC44" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD44" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF44" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH44" s="15">
         <v>35</v>
       </c>
       <c r="AI44" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ44" s="16">
-        <v>181925</v>
+        <v>181950</v>
       </c>
       <c r="AK44" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL44" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AM44" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN44" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP44" s="15">
         <v>35</v>
       </c>
       <c r="AQ44" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR44" s="16">
-        <v>181957</v>
+        <v>181934</v>
       </c>
       <c r="AS44" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT44" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU44" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AV44" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX44" s="15">
         <v>35</v>
       </c>
       <c r="AY44" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AZ44" s="16">
-        <v>181670</v>
+        <v>182039</v>
       </c>
       <c r="BA44" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BB44" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BC44" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="BD44" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF44" s="15">
         <v>35</v>
       </c>
       <c r="BG44" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH44" s="16">
-        <v>181925</v>
+        <v>181950</v>
       </c>
       <c r="BI44" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ44" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BK44" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL44" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,106 +5736,104 @@
         <v>36</v>
       </c>
       <c r="AA45" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AB45" s="16">
-        <v>181921</v>
+        <v>181907</v>
       </c>
       <c r="AC45" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AD45" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AE45" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AF45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH45" s="15">
         <v>36</v>
       </c>
       <c r="AI45" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AJ45" s="16">
-        <v>181670</v>
+        <v>182069</v>
       </c>
       <c r="AK45" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AL45" s="17" t="d">
-        <v>2024-02-22</v>
-      </c>
-      <c r="AM45" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>2024-02-27</v>
+      </c>
+      <c r="AM45" s="16"/>
       <c r="AN45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP45" s="15">
         <v>36</v>
       </c>
       <c r="AQ45" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AR45" s="16">
-        <v>181921</v>
+        <v>181907</v>
       </c>
       <c r="AS45" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AT45" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU45" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AV45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX45" s="15">
         <v>36</v>
       </c>
       <c r="AY45" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ45" s="16">
-        <v>181957</v>
+        <v>181934</v>
       </c>
       <c r="BA45" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB45" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BC45" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BD45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF45" s="15">
         <v>36</v>
       </c>
       <c r="BG45" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="BH45" s="16">
-        <v>181670</v>
+        <v>182039</v>
       </c>
       <c r="BI45" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BJ45" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BK45" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="BL45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,19 +5841,19 @@
         <v>37</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="AB46" s="16">
-        <v>181771</v>
+        <v>181819</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AD46" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AF46" s="18">
         <v>7</v>
@@ -6307,40 +5862,40 @@
         <v>37</v>
       </c>
       <c r="AI46" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AJ46" s="16">
-        <v>181957</v>
+        <v>182039</v>
       </c>
       <c r="AK46" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AL46" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AM46" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AN46" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP46" s="15">
         <v>37</v>
       </c>
       <c r="AQ46" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR46" s="16">
-        <v>181937</v>
+        <v>181868</v>
       </c>
       <c r="AS46" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AT46" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU46" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AV46" s="18">
         <v>7</v>
@@ -6349,105 +5904,105 @@
         <v>37</v>
       </c>
       <c r="AY46" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AZ46" s="16">
-        <v>181921</v>
+        <v>181907</v>
       </c>
       <c r="BA46" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="BB46" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BC46" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BD46" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF46" s="15">
         <v>37</v>
       </c>
       <c r="BG46" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BH46" s="16">
-        <v>181957</v>
+        <v>181934</v>
       </c>
       <c r="BI46" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BJ46" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BK46" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL46" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="47" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z47" s="15">
+    <row r="47" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z47" s="19">
         <v>38</v>
       </c>
-      <c r="AA47" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB47" s="16">
-        <v>181937</v>
-      </c>
-      <c r="AC47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD47" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF47" s="18">
+      <c r="AA47" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB47" s="20">
+        <v>181929</v>
+      </c>
+      <c r="AC47" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD47" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="AE47" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF47" s="22">
         <v>7</v>
       </c>
       <c r="AH47" s="15">
         <v>38</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ47" s="16">
-        <v>181921</v>
+        <v>181934</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL47" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AN47" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP47" s="15">
         <v>38</v>
       </c>
       <c r="AQ47" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR47" s="16">
-        <v>181748</v>
+        <v>181819</v>
       </c>
       <c r="AS47" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AT47" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AU47" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AV47" s="18">
         <v>7</v>
@@ -6456,19 +6011,19 @@
         <v>38</v>
       </c>
       <c r="AY47" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ47" s="16">
-        <v>181937</v>
+        <v>181868</v>
       </c>
       <c r="BA47" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="BB47" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BC47" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD47" s="18">
         <v>7</v>
@@ -6477,707 +6032,174 @@
         <v>38</v>
       </c>
       <c r="BG47" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="BH47" s="16">
-        <v>181921</v>
+        <v>181907</v>
       </c>
       <c r="BI47" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="BJ47" s="17" t="d">
-        <v>2024-02-22</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BK47" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="BL47" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="48" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z48" s="15">
-        <v>39</v>
-      </c>
-      <c r="AA48" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB48" s="16">
-        <v>181748</v>
-      </c>
-      <c r="AC48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD48" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF48" s="18">
-        <v>7</v>
-      </c>
+    <row r="48" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH48" s="15">
         <v>39</v>
       </c>
       <c r="AI48" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="AJ48" s="16">
-        <v>181771</v>
+        <v>181907</v>
       </c>
       <c r="AK48" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AL48" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM48" s="16"/>
+        <v>2024-02-27</v>
+      </c>
+      <c r="AM48" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="AN48" s="18">
         <v>7</v>
       </c>
-      <c r="AP48" s="15">
+      <c r="AP48" s="19">
         <v>39</v>
       </c>
-      <c r="AQ48" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR48" s="16">
-        <v>181672</v>
-      </c>
-      <c r="AS48" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT48" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AU48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV48" s="18">
+      <c r="AQ48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR48" s="20">
+        <v>181929</v>
+      </c>
+      <c r="AS48" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT48" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="AU48" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV48" s="22">
         <v>7</v>
       </c>
-      <c r="AX48" s="15">
+      <c r="AX48" s="19">
         <v>39</v>
       </c>
-      <c r="AY48" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ48" s="16">
-        <v>181748</v>
-      </c>
-      <c r="BA48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB48" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC48" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD48" s="18">
+      <c r="AY48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ48" s="20">
+        <v>181929</v>
+      </c>
+      <c r="BA48" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB48" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="BC48" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD48" s="22">
         <v>7</v>
       </c>
       <c r="BF48" s="15">
         <v>39</v>
       </c>
       <c r="BG48" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="BH48" s="16">
-        <v>181771</v>
+        <v>181819</v>
       </c>
       <c r="BI48" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="BJ48" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="BK48" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="BL48" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z49" s="15">
-        <v>40</v>
-      </c>
-      <c r="AA49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB49" s="16">
-        <v>181672</v>
-      </c>
-      <c r="AC49" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD49" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF49" s="18">
-        <v>7</v>
-      </c>
+    <row r="49" spans="34:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH49" s="15">
         <v>40</v>
       </c>
       <c r="AI49" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ49" s="16">
-        <v>181937</v>
+        <v>181868</v>
       </c>
       <c r="AK49" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL49" s="17" t="d">
-        <v>2024-02-23</v>
+        <v>2024-02-27</v>
       </c>
       <c r="AM49" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AN49" s="18">
         <v>7</v>
       </c>
-      <c r="AP49" s="15">
+      <c r="BF49" s="19">
         <v>40</v>
       </c>
-      <c r="AQ49" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR49" s="16">
-        <v>181943</v>
-      </c>
-      <c r="AS49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT49" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AU49" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV49" s="18">
+      <c r="BG49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH49" s="20">
+        <v>181929</v>
+      </c>
+      <c r="BI49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ49" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="BK49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL49" s="22">
         <v>7</v>
       </c>
-      <c r="AX49" s="15">
-        <v>40</v>
-      </c>
-      <c r="AY49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ49" s="16">
-        <v>181672</v>
-      </c>
-      <c r="BA49" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB49" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD49" s="18">
-        <v>7</v>
-      </c>
-      <c r="BF49" s="15">
-        <v>40</v>
-      </c>
-      <c r="BG49" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH49" s="16">
-        <v>181937</v>
-      </c>
-      <c r="BI49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ49" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL49" s="18">
-        <v>7</v>
-      </c>
     </row>
-    <row r="50" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z50" s="15">
+    <row r="50" spans="34:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH50" s="19">
         <v>41</v>
       </c>
-      <c r="AA50" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB50" s="16">
-        <v>181943</v>
-      </c>
-      <c r="AC50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD50" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF50" s="18">
-        <v>7</v>
-      </c>
-      <c r="AH50" s="15">
-        <v>41</v>
-      </c>
-      <c r="AI50" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ50" s="16">
-        <v>181748</v>
-      </c>
-      <c r="AK50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL50" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN50" s="18">
-        <v>7</v>
-      </c>
-      <c r="AP50" s="15">
-        <v>41</v>
-      </c>
-      <c r="AQ50" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR50" s="16">
+      <c r="AI50" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ50" s="20">
         <v>181929</v>
       </c>
-      <c r="AS50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT50" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AU50" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV50" s="18">
-        <v>7</v>
-      </c>
-      <c r="AX50" s="15">
-        <v>41</v>
-      </c>
-      <c r="AY50" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ50" s="16">
-        <v>181943</v>
-      </c>
-      <c r="BA50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB50" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD50" s="18">
-        <v>7</v>
-      </c>
-      <c r="BF50" s="15">
-        <v>41</v>
-      </c>
-      <c r="BG50" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH50" s="16">
-        <v>181748</v>
-      </c>
-      <c r="BI50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ50" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL50" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z51" s="15">
-        <v>42</v>
-      </c>
-      <c r="AA51" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB51" s="16">
-        <v>181929</v>
-      </c>
-      <c r="AC51" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD51" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF51" s="18">
-        <v>7</v>
-      </c>
-      <c r="AH51" s="15">
-        <v>42</v>
-      </c>
-      <c r="AI51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ51" s="16">
-        <v>181672</v>
-      </c>
-      <c r="AK51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL51" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM51" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN51" s="18">
-        <v>7</v>
-      </c>
-      <c r="AP51" s="15">
-        <v>42</v>
-      </c>
-      <c r="AQ51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR51" s="16">
-        <v>181767</v>
-      </c>
-      <c r="AS51" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT51" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AU51" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV51" s="18">
-        <v>7</v>
-      </c>
-      <c r="AX51" s="15">
-        <v>42</v>
-      </c>
-      <c r="AY51" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ51" s="16">
-        <v>181929</v>
-      </c>
-      <c r="BA51" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB51" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD51" s="18">
-        <v>7</v>
-      </c>
-      <c r="BF51" s="15">
-        <v>42</v>
-      </c>
-      <c r="BG51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH51" s="16">
-        <v>181672</v>
-      </c>
-      <c r="BI51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ51" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK51" s="16" t="s">
+      <c r="AK50" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL50" s="21" t="d">
+        <v>2024-02-27</v>
+      </c>
+      <c r="AM50" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BL51" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z52" s="19">
-        <v>43</v>
-      </c>
-      <c r="AA52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB52" s="20">
-        <v>181949</v>
-      </c>
-      <c r="AC52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD52" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AE52" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF52" s="22">
-        <v>7</v>
-      </c>
-      <c r="AH52" s="15">
-        <v>43</v>
-      </c>
-      <c r="AI52" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ52" s="16">
-        <v>181943</v>
-      </c>
-      <c r="AK52" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL52" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM52" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN52" s="18">
-        <v>7</v>
-      </c>
-      <c r="AP52" s="19">
-        <v>43</v>
-      </c>
-      <c r="AQ52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR52" s="20">
-        <v>181949</v>
-      </c>
-      <c r="AS52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT52" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AU52" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV52" s="22">
-        <v>7</v>
-      </c>
-      <c r="AX52" s="15">
-        <v>43</v>
-      </c>
-      <c r="AY52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ52" s="16">
-        <v>181767</v>
-      </c>
-      <c r="BA52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB52" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC52" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD52" s="18">
-        <v>7</v>
-      </c>
-      <c r="BF52" s="15">
-        <v>43</v>
-      </c>
-      <c r="BG52" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH52" s="16">
-        <v>181943</v>
-      </c>
-      <c r="BI52" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ52" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK52" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL52" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH53" s="15">
-        <v>44</v>
-      </c>
-      <c r="AI53" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ53" s="16">
-        <v>181929</v>
-      </c>
-      <c r="AK53" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL53" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN53" s="18">
-        <v>7</v>
-      </c>
-      <c r="AX53" s="19">
-        <v>44</v>
-      </c>
-      <c r="AY53" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ53" s="20">
-        <v>181949</v>
-      </c>
-      <c r="BA53" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB53" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BC53" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD53" s="22">
-        <v>7</v>
-      </c>
-      <c r="BF53" s="15">
-        <v>44</v>
-      </c>
-      <c r="BG53" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH53" s="16">
-        <v>181929</v>
-      </c>
-      <c r="BI53" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ53" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK53" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL53" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH54" s="15">
-        <v>45</v>
-      </c>
-      <c r="AI54" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ54" s="16">
-        <v>181767</v>
-      </c>
-      <c r="AK54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL54" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM54" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN54" s="18">
-        <v>7</v>
-      </c>
-      <c r="BF54" s="15">
-        <v>45</v>
-      </c>
-      <c r="BG54" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH54" s="16">
-        <v>181767</v>
-      </c>
-      <c r="BI54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ54" s="17" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK54" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL54" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH55" s="19">
-        <v>46</v>
-      </c>
-      <c r="AI55" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ55" s="20">
-        <v>181949</v>
-      </c>
-      <c r="AK55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL55" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="AM55" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN55" s="22">
-        <v>7</v>
-      </c>
-      <c r="BF55" s="19">
-        <v>46</v>
-      </c>
-      <c r="BG55" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH55" s="20">
-        <v>181949</v>
-      </c>
-      <c r="BI55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ55" s="21" t="d">
-        <v>2024-02-23</v>
-      </c>
-      <c r="BK55" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL55" s="22">
+      <c r="AN50" s="22">
         <v>7</v>
       </c>
     </row>
